--- a/resources/devdata/env.xlsx
+++ b/resources/devdata/env.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanmudigonda/Documents/GitHub/RFW-Automation/resources/devdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A3A7E4-4B9A-014C-8514-D60D4F01023E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6A9CFC-D2ED-064D-BDAC-9B14FC5AB2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" activeTab="1" xr2:uid="{E6EC8738-6920-6C4B-BEB9-2E0AE521963E}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{E6EC8738-6920-6C4B-BEB9-2E0AE521963E}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>url</t>
   </si>
@@ -71,13 +71,19 @@
   </si>
   <si>
     <t>refref</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,13 +99,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,9 +135,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -433,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EA89CA-0898-AC4A-B707-DCBF5BC9B486}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,14 +467,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -460,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -471,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -482,16 +504,27 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{0B6A406E-EABC-7348-880E-FCD4D0A8F005}"/>
-    <hyperlink ref="C2:C4" r:id="rId2" display="https://saucedemo.com" xr:uid="{CFCB13CE-FBBC-2843-BDB8-E3F4E5F354C6}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0B6A406E-EABC-7348-880E-FCD4D0A8F005}"/>
+    <hyperlink ref="C3:C5" r:id="rId2" display="https://saucedemo.com" xr:uid="{CFCB13CE-FBBC-2843-BDB8-E3F4E5F354C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -501,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7542D24A-755D-4A40-B736-DFEF01585611}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,13 +544,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
